--- a/analysis/mails_01/P05_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P05_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1466">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -1818,10 +1818,10 @@
     <t xml:space="preserve">MFD03735</t>
   </si>
   <si>
-    <t xml:space="preserve">55.639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6615</t>
+    <t xml:space="preserve">55.6393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6621</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03740</t>
@@ -2397,10 +2397,10 @@
     <t xml:space="preserve">MFD03934</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7718</t>
+    <t xml:space="preserve">55.3518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2178</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03937</t>
@@ -3639,10 +3639,10 @@
     <t xml:space="preserve">MFD06996</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0237</t>
+    <t xml:space="preserve">54.8847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0241</t>
   </si>
   <si>
     <t xml:space="preserve">MFD07000</t>
@@ -3909,10 +3909,10 @@
     <t xml:space="preserve">MFD09848</t>
   </si>
   <si>
-    <t xml:space="preserve">55.5438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6021</t>
+    <t xml:space="preserve">55.4573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.025</t>
   </si>
   <si>
     <t xml:space="preserve">MFD09861</t>
@@ -4287,13 +4287,19 @@
     <t xml:space="preserve">2022-05-23</t>
   </si>
   <si>
-    <t xml:space="preserve">57.0145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9852</t>
+    <t xml:space="preserve">55.7307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5041</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1678</t>
   </si>
   <si>
     <t xml:space="preserve">MFD03811</t>
@@ -23709,10 +23715,10 @@
         <v>1423</v>
       </c>
       <c r="D452" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="E452" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="F452" t="s">
         <v>19</v>
@@ -23742,7 +23748,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="B453" t="s">
         <v>15</v>
@@ -23751,10 +23757,10 @@
         <v>703</v>
       </c>
       <c r="D453" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="E453" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="F453" t="s">
         <v>19</v>
@@ -23763,7 +23769,7 @@
         <v>20</v>
       </c>
       <c r="H453" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="I453" t="s">
         <v>21</v>
@@ -23786,7 +23792,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B454" t="s">
         <v>15</v>
@@ -23795,10 +23801,10 @@
         <v>703</v>
       </c>
       <c r="D454" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="E454" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="F454" t="s">
         <v>19</v>
@@ -23807,7 +23813,7 @@
         <v>20</v>
       </c>
       <c r="H454" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="I454" t="s">
         <v>21</v>
@@ -23830,7 +23836,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="B455" t="s">
         <v>15</v>
@@ -23839,10 +23845,10 @@
         <v>703</v>
       </c>
       <c r="D455" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="E455" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="F455" t="s">
         <v>19</v>
@@ -23851,7 +23857,7 @@
         <v>20</v>
       </c>
       <c r="H455" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="I455" t="s">
         <v>21</v>
@@ -23874,19 +23880,19 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B456" t="s">
         <v>15</v>
       </c>
       <c r="C456" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="D456" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="E456" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="F456" t="s">
         <v>121</v>
@@ -23895,7 +23901,7 @@
         <v>122</v>
       </c>
       <c r="H456" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="I456" t="s">
         <v>21</v>
@@ -23918,19 +23924,19 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B457" t="s">
         <v>15</v>
       </c>
       <c r="C457" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="D457" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="E457" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="F457" t="s">
         <v>19</v>
@@ -23939,7 +23945,7 @@
         <v>20</v>
       </c>
       <c r="H457" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="I457" t="s">
         <v>21</v>
@@ -23976,10 +23982,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="2">
@@ -23987,7 +23993,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="3">
@@ -23995,7 +24001,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="4">
@@ -24003,7 +24009,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="5">
@@ -24011,7 +24017,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="6">
@@ -24019,7 +24025,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="7">
@@ -24027,7 +24033,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="8">
@@ -24035,7 +24041,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="9">
@@ -24043,7 +24049,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="10">
@@ -24051,7 +24057,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="11">
@@ -24059,7 +24065,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="12">
@@ -24067,7 +24073,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="13">
@@ -24075,7 +24081,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="14">
@@ -24083,7 +24089,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="15">
@@ -24091,7 +24097,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
   </sheetData>
